--- a/file_3.xlsx
+++ b/file_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\classwork_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B1F550-8EC6-48DC-A3E7-06843E66146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E9FBED-70F8-4890-A4A4-04DD47306CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>dsm,v dfvdfv</t>
   </si>
   <si>
-    <t>fvf,fbvd.,b</t>
+    <t>vcxcv xc x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x xc x xz xz </t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -359,6 +362,11 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
